--- a/myapp/files/9_MethodComparePercent/Scenario 316.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 316.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>270</v>
+        <v>7300</v>
       </c>
       <c r="F2" t="n">
-        <v>0.292040279926016</v>
+        <v>1.63475900741016</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.85185185185185</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>690</v>
+        <v>15703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.746325159810931</v>
+        <v>3.5165233826523</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.85185185185185</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K3" t="n">
         <v>3</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>4066</v>
+        <v>22062</v>
       </c>
       <c r="F4" t="n">
-        <v>4.39791028955253</v>
+        <v>4.94055523581959</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7037037037037</v>
+        <v>4.48430493273543</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4254</v>
+        <v>22210</v>
       </c>
       <c r="F5" t="n">
-        <v>4.60125685483435</v>
+        <v>4.9736982951479</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -707,10 +707,10 @@
         <v>7.93650793650794</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>5.55555555555556</v>
+        <v>4.93273542600897</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>13547</v>
+        <v>36261</v>
       </c>
       <c r="F6" t="n">
-        <v>14.6528506376213</v>
+        <v>8.12027347502738</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,16 +745,16 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>11.1111111111111</v>
+        <v>7.62331838565022</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>11.1111111111111</v>
+        <v>12.6984126984127</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5408</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.21106530302386</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12206</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.73340663622581</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.1390134529148</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1664</v>
+        <v>22882</v>
       </c>
       <c r="F9" t="n">
-        <v>1.79983342887738</v>
+        <v>5.12418569966566</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>1.85185185185185</v>
+        <v>6.2780269058296</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>5235</v>
+        <v>38658</v>
       </c>
       <c r="F10" t="n">
-        <v>5.66233653856554</v>
+        <v>8.65705667239206</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,10 +897,10 @@
         <v>9.52380952380952</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>5.55555555555556</v>
+        <v>8.52017937219731</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>9324</v>
+        <v>45547</v>
       </c>
       <c r="F11" t="n">
-        <v>10.0851243334451</v>
+        <v>10.1997765082891</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
@@ -935,16 +935,16 @@
         <v>12.6984126984127</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J11" t="n">
-        <v>7.40740740740741</v>
+        <v>9.41704035874439</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>14.2857142857143</v>
+        <v>12.6984126984127</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.353824552288775</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.896860986547085</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>304</v>
+        <v>13766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.328815722583367</v>
+        <v>3.08275239671346</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.85185185185185</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>9614</v>
+        <v>25739</v>
       </c>
       <c r="F14" t="n">
-        <v>10.398797226699</v>
+        <v>5.76398110845618</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>7.40740740740741</v>
+        <v>5.38116591928251</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7447</v>
+        <v>24603</v>
       </c>
       <c r="F15" t="n">
-        <v>8.05490357262609</v>
+        <v>5.50958573415235</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>12.6984126984127</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>11.1111111111111</v>
+        <v>8.07174887892377</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>11543</v>
+        <v>38935</v>
       </c>
       <c r="F16" t="n">
-        <v>12.4852627821704</v>
+        <v>8.71908793883762</v>
       </c>
       <c r="G16" t="n">
         <v>12</v>
@@ -1125,10 +1125,10 @@
         <v>19.047619047619</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>12.962962962963</v>
+        <v>8.52017937219731</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.05206819408396</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.448430493273543</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>12972</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.90494436220885</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>878</v>
+        <v>14858</v>
       </c>
       <c r="F19" t="n">
-        <v>0.94967172509275</v>
+        <v>3.32729442905482</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1239,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7037037037037</v>
+        <v>2.69058295964126</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>4353</v>
+        <v>16052</v>
       </c>
       <c r="F20" t="n">
-        <v>4.70833829080722</v>
+        <v>3.5946782995819</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>15.8730158730159</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>7.40740740740741</v>
+        <v>5.82959641255605</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>10574</v>
+        <v>24017</v>
       </c>
       <c r="F21" t="n">
-        <v>11.4371626664359</v>
+        <v>5.37835713437943</v>
       </c>
       <c r="G21" t="n">
         <v>5</v>
@@ -1315,10 +1315,10 @@
         <v>7.93650793650794</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>7.40740740740741</v>
+        <v>5.82959641255605</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1672</v>
+        <v>5210</v>
       </c>
       <c r="F22" t="n">
-        <v>1.80848647420852</v>
+        <v>1.16672526419273</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.85185185185185</v>
+        <v>0.896860986547085</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1782</v>
+        <v>6968</v>
       </c>
       <c r="F23" t="n">
-        <v>1.92746584751171</v>
+        <v>1.56041106351151</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.85185185185185</v>
+        <v>1.34529147982063</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1782</v>
+        <v>7437</v>
       </c>
       <c r="F24" t="n">
-        <v>1.92746584751171</v>
+        <v>1.66543873124786</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.85185185185185</v>
+        <v>1.79372197309417</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1782</v>
+        <v>11656</v>
       </c>
       <c r="F25" t="n">
-        <v>1.92746584751171</v>
+        <v>2.61023986169491</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85185185185185</v>
+        <v>2.24215246636771</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1672</v>
+        <v>9821</v>
       </c>
       <c r="F26" t="n">
-        <v>1.80848647420852</v>
+        <v>2.19931071394181</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.85185185185185</v>
+        <v>2.24215246636771</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
